--- a/Stock Evaluation.xlsx
+++ b/Stock Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B1FC58-144A-4E88-9533-963D93B1AD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10BD275-771D-4AB9-A42C-C87A4D313E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
   </bookViews>
@@ -44,10 +44,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Eval
-(Y, N)</t>
-  </si>
-  <si>
     <t>Current
 Finacial Position
 (1, -1, 0)</t>
@@ -110,6 +106,10 @@
   </si>
   <si>
     <t>STOCK EVALUATION</t>
+  </si>
+  <si>
+    <t>Eval.
+(1 - 10)</t>
   </si>
 </sst>
 </file>
@@ -607,11 +607,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -625,7 +639,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -928,7 +942,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +966,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -978,44 +992,44 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="J2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="17" t="s">
+      <c r="M2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="N2" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O2" s="17"/>
       <c r="P2" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1023,9 +1037,7 @@
       <c r="B3" s="22"/>
       <c r="C3" s="7"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="18">
-        <v>1</v>
-      </c>
+      <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -1037,8 +1049,8 @@
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
       <c r="P3" s="27">
-        <f>SUM(E3:O3)</f>
-        <v>1</v>
+        <f>SUM(D3:N3)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1058,7 +1070,7 @@
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="28">
-        <f>SUM(E4:N4)</f>
+        <f>SUM(D4:N4)</f>
         <v>0</v>
       </c>
     </row>
@@ -1079,7 +1091,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="28">
-        <f>SUM(E5:N5)</f>
+        <f>SUM(D5:N5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1100,7 +1112,7 @@
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="29">
-        <f>SUM(E6:N6)</f>
+        <f>SUM(D6:N6)</f>
         <v>0</v>
       </c>
     </row>
@@ -1110,17 +1122,39 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="P3:P6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>3</formula>
       <formula>7</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
       <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9:R10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stock Evaluation.xlsx
+++ b/Stock Evaluation.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10BD275-771D-4AB9-A42C-C87A4D313E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689CDBDB-5A6F-4AFA-80F9-881FB7BF76D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,31 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Ticker</t>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Current
-Finacial Position
-(1, -1, 0)</t>
-  </si>
-  <si>
-    <t>News
-(1, -1, 0)</t>
-  </si>
-  <si>
-    <t>Company
-Advantage 
-(1, -1, 0)</t>
-  </si>
-  <si>
-    <t>Gen.
-Info.
-(1, -1, 0)</t>
   </si>
   <si>
     <t>Current
@@ -68,48 +49,132 @@
 (Adj. Close)</t>
   </si>
   <si>
-    <t>Mgnt.
-(1, -1, 0)</t>
-  </si>
-  <si>
-    <t>Ana.
-&amp;
-Inst.
-(1, -1, 0)</t>
-  </si>
-  <si>
-    <t>Key
-Stats.
-(1, -1, 0)</t>
-  </si>
-  <si>
-    <t>Price
+    <t>Total
+Score</t>
+  </si>
+  <si>
+    <t>STOCK EVALUATION</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Broadcom</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>Opendoor</t>
+  </si>
+  <si>
+    <t>WELL</t>
+  </si>
+  <si>
+    <t>Portfolio
+or
+New</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>Welltower</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>Hewlett Packard</t>
+  </si>
+  <si>
+    <t>Yahoo
+Finance
+Analysis
+(0 - 10)</t>
+  </si>
+  <si>
+    <t>Yahoo
+Finance
+Financials
+(0 - 10)</t>
+  </si>
+  <si>
+    <t>Yahoo
+Finance
+Statistics
+(0 - 10)</t>
+  </si>
+  <si>
+    <t>Yahoo
+Finance
+Conversations
+(0 - 10)</t>
+  </si>
+  <si>
+    <t>Google
+What
+They
+Do?
+(0 - 10)</t>
+  </si>
+  <si>
+    <t>Stock Manager
+Price
 vs.
 Graham No.
-(1, -1, 0)</t>
-  </si>
-  <si>
-    <t>Ann. &amp; Quart.
-Rev.,
-Net inc./Earn. 
-(1, -1, 0)</t>
-  </si>
-  <si>
-    <t>Total
-Score</t>
-  </si>
-  <si>
-    <t>Div. Payout
-Ratio
-(30%-50%)
-(1, -1, 0)</t>
-  </si>
-  <si>
-    <t>STOCK EVALUATION</t>
-  </si>
-  <si>
-    <t>Eval.
+(0 - 10)</t>
+  </si>
+  <si>
+    <t>Yahoo
+Finance
+Porfile
+(0 - 10)</t>
+  </si>
+  <si>
+    <t>Yahoo
+Finance
+Holders
+(0 - 10)</t>
+  </si>
+  <si>
+    <t>Thinkorswim
+Heikin Ashi
+Chart
+Corralation
 (1 - 10)</t>
+  </si>
+  <si>
+    <t>Stock Manager
+Total Score
+(0 - ?)</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>Maration Petorleum</t>
   </si>
 </sst>
 </file>
@@ -119,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,14 +217,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -175,16 +232,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -238,21 +329,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -485,7 +561,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -498,7 +574,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -507,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,40 +595,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -564,34 +622,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -600,14 +679,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -622,29 +714,15 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -939,34 +1017,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF1E3C9-2443-431B-AB8B-4EF10572E85D}">
-  <dimension ref="A1:P7"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="8.375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="4" customWidth="1"/>
-    <col min="14" max="15" width="11.875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
+    <col min="10" max="12" width="10.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.625" style="4" customWidth="1"/>
     <col min="16" max="16" width="10.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -984,152 +1062,354 @@
       <c r="O1" s="31"/>
       <c r="P1" s="32"/>
     </row>
-    <row r="2" spans="1:16" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:16" ht="95.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="17" t="s">
+      <c r="F2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="26" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="27">
-        <f>SUM(D3:N3)</f>
+      <c r="A3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="28">
+        <v>45500</v>
+      </c>
+      <c r="E3" s="19">
+        <v>113.06</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="16">
+        <f>SUM(F3:O3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="28">
-        <f>SUM(D4:N4)</f>
+      <c r="A4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="28">
+        <v>45500</v>
+      </c>
+      <c r="E4" s="19">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="16">
+        <f>SUM(F4:O4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="28">
-        <f>SUM(D5:N5)</f>
+      <c r="A5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="17">
+        <f t="shared" ref="P5:P13" si="0">SUM(F5:O5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="14"/>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="29">
-        <f>SUM(D6:N6)</f>
+      <c r="F6" s="6"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
-  <conditionalFormatting sqref="P3:P6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
-      <formula>3</formula>
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="P3:P13">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1139,13 +1419,20 @@
         <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="between">
+      <formula>3</formula>
+      <formula>7</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="P5:P12">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThanOrEqual">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R9:R10">
+  <conditionalFormatting sqref="R16:R17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
